--- a/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 15,43</t>
+          <t>5,2; 29,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 19,13</t>
+          <t>3,4; 20,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 14,32</t>
+          <t>-3,67; 15,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 53,59</t>
+          <t>5,28; 31,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 64,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 50,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 176,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 80,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 52,45</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 206,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 6,57</t>
+          <t>-10,86; 6,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 15,12</t>
+          <t>1,59; 14,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 9,0</t>
+          <t>-3,39; 9,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 23,62</t>
+          <t>2,73; 17,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 53,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 29,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-27,59; 23,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 53,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 29,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 75,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,15%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,39 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 6,52</t>
+          <t>-10,24; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 11,45</t>
+          <t>0,42; 13,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 6,32</t>
+          <t>-6,33; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 22,4</t>
+          <t>3,17; 18,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 38,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 21,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,41; 22,98</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 46,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; 19,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 80,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,63</t>
+          <t>-3,53; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,27</t>
+          <t>1,78; 17,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 18,69</t>
+          <t>3,16; 18,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 39,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 20,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 36,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 59,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 80,02</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>44,33%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 6,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 12,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 7,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 16,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 21,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 42,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 22,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25,98; 64,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>70,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>37,59%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20,44%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>76,15%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>15.9001670847709</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.56962200038033</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.38107095348412</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>17.20385942572838</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.6089002989217182</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3523179668927713</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2118854591214414</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7437696875213073</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 29,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 20,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 15,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 31,68</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>17,37; 176,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>8,99; 80,49</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 52,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>16,8; 206,8</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.498220488960914</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.585230883328257</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.029770267978399</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.567358442653184</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.1052200100315238</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.06928956579654764</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0728203842440542</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1502712678435656</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.57084912670557</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.58006123488355</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.79615773160741</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>30.3469442797731</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.594635824236765</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7789680743276813</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5446522330712574</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.020734183285497</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>37,97%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 6,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 14,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 9,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 17,6</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 23,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 53,03</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 29,52</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 75,49</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.5848030264955284</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.654828525320074</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.555735511247065</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.47781490255959</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.01794474510215979</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2703061566460643</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.0728382495287505</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3764058769033949</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-4,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>39,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.766407268013246</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.684768267023658</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.900778166398375</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.914563921080396</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2618488616066644</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.04901030983619099</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1005039321440946</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.07978014002921985</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 6,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 13,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 5,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,17; 18,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,41; 22,98</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 46,57</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-16,79; 19,37</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,06; 80,54</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.555317118138874</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.79121747217687</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.67435485382299</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.87575416806613</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.2662446298797226</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5341223413688796</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2841565544534886</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7615100300966872</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,36</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>42,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.8017090060944143</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.179897121215167</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5232216327501371</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.96397090923322</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.02400799613145116</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2155939163724421</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.01555218561963116</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4008112065944677</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 10,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 17,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 18,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 36,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 59,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>10,21; 80,02</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.751632670138003</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.01081404610298326</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.145923323245157</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>3.418754041963457</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2475003704002116</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.005325010036544543</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1679022470513154</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.1032985685411539</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.184417374535823</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.5401544617701</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.024936478095083</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.83676560257084</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2587687879848707</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4471749786917673</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1991018236791955</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.8152393043524712</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>27,81%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,08%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>44,33%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 6,36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 12,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 7,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 16,18</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 21,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,21; 42,11</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 22,03</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>25,98; 64,49</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.290901921345201</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.85556184173198</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.096095234459423</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.02900749444239</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.07199502936642618</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2716372258904018</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.08953124933329266</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4491350780574728</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.541290118769491</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.379004477976039</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.9947832220407191</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.137357649889737</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.09994006688271423</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1080870699753519</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02679093892173655</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2381412305149519</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.260892447829755</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.18310584330071</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.113570385741628</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.79729943160857</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.2539811430065059</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.436068365186413</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2171400487848784</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6840841567087087</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
